--- a/documentation/0 architecture/develop/standards/directory-layout/java-directory-layout.xlsx
+++ b/documentation/0 architecture/develop/standards/directory-layout/java-directory-layout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="2820" windowWidth="23715" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Industry" sheetId="1" r:id="rId1"/>
-    <sheet name="Pattern" sheetId="2" r:id="rId2"/>
+    <sheet name="Pattern (CODELABOR 3.0)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Industry!$A$1:$F$1</definedName>
@@ -499,7 +499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +512,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -585,27 +601,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,723 +933,724 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:F14"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="B25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="B33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="B35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="B37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="B39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1649,521 +1672,527 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/documentation/0 architecture/develop/standards/directory-layout/java-directory-layout.xlsx
+++ b/documentation/0 architecture/develop/standards/directory-layout/java-directory-layout.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="2820" windowWidth="23715" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="225" yWindow="2880" windowWidth="23715" windowHeight="9345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Industry" sheetId="1" r:id="rId1"/>
-    <sheet name="Pattern (CODELABOR 3.0)" sheetId="2" r:id="rId2"/>
+    <sheet name="Layout (CODELABOR 3.0)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Industry!$A$1:$F$1</definedName>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="125">
   <si>
     <t>Level 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,22 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -595,30 +611,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -628,6 +672,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,716 +1003,716 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1669,539 +1731,627 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/0 architecture/develop/standards/directory-layout/java-directory-layout.xlsx
+++ b/documentation/0 architecture/develop/standards/directory-layout/java-directory-layout.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="140">
   <si>
     <t>Level 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,18 @@
   </si>
   <si>
     <t>Model Driven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utility</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1402,24 +1414,22 @@
         <v>6</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="L12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
         <v>4</v>
@@ -1431,11 +1441,11 @@
         <v>6</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>134</v>
@@ -1446,10 +1456,10 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="E14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1460,14 +1470,14 @@
         <v>6</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1477,7 +1487,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1489,7 +1499,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
@@ -1502,12 +1512,12 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1518,14 +1528,14 @@
         <v>6</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1547,20 +1557,22 @@
         <v>6</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1574,15 +1586,67 @@
         <v>6</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>112</v>
       </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
